--- a/2024-2025/Data og lign/slikomsaetning.xlsx
+++ b/2024-2025/Data og lign/slikomsaetning.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.01</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48.73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58.57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56.47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48.55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54.25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53.92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57.95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58.73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>60.91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>61.55</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>51.27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>52.38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>61.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>55.77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>60.73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>59.85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65.26000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>61.82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70.59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63.26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>58.48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>65.13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>72.13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57.63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69.34999999999999</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62.53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.43000000000001</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.81999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>63.42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>70.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.26000000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78.73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>74.98999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>80.56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87.16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>87.34999999999999</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>81.15000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>93.13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>86.33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>86.23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>89.34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>88.72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>87.04000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>87.73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>90.56999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>95.29000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>80.67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>89.53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>96.34999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>88.77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>102.13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>98.84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99.53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>102.71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>102.61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>105.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>103.38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>105.43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>106.78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>101.33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>111.01</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>103.32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>109.77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>112.46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>113.29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>105.66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>106.37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>117.13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>110.06</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>119.78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>119.1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>126.58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>124.42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>123.17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>118.08</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>121.96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>128.71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>119.65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126.2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>121.1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>133.05</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>128.68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>135.7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>139.12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>132.57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>144.07</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>142.99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>142.59</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>151.71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>136.7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>147.41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>140.1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>142.05</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>139.44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>152.04</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>146.17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>146.41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>154.12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>159.43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>157.59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>155.22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>155.51</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>165.17</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>159.51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>165.04</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
